--- a/ArrowEye_AutomationSuit/Excel/TestData.xlsx
+++ b/ArrowEye_AutomationSuit/Excel/TestData.xlsx
@@ -1,37 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28512"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E2F39B-72F4-4367-8D64-41C1438693EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Portal\EMV_Script\ArrowEye_TestAutomationSuit\ArrowEye_AutomationSuit\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Username</t>
   </si>
@@ -39,23 +26,23 @@
     <t>Password</t>
   </si>
   <si>
-    <t>priyajain</t>
-  </si>
-  <si>
-    <t>Priya@12345</t>
-  </si>
-  <si>
-    <t>priyajain2</t>
-  </si>
-  <si>
-    <t>Priya2@12345</t>
+    <t>portaltestuser</t>
+  </si>
+  <si>
+    <t>Admin123@</t>
+  </si>
+  <si>
+    <t>portaltestuser2</t>
+  </si>
+  <si>
+    <t>Admin123@2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,17 +51,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -87,35 +67,20 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -124,10 +89,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -296,6 +261,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -322,24 +288,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,63 +367,36 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.85547" customWidth="1"/>
+    <col min="2" max="2" width="18.14063" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -464,8 +404,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -473,6 +413,5 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>